--- a/STBE-2nd law/data_tables.xlsx
+++ b/STBE-2nd law/data_tables.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/Trunk/APEN-2nd law/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/Trunk/STBE-2nd law/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF60FFB3-8333-CD4F-9EE0-164C57F3A2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8219083E-7981-4245-A8CA-C29F3A7F01C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25600" windowHeight="15560" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20720" windowHeight="13280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="60K ECU" sheetId="9" r:id="rId1"/>
     <sheet name="36K ECU" sheetId="10" r:id="rId2"/>
     <sheet name="18K ECU" sheetId="11" r:id="rId3"/>
-    <sheet name="x=0(R410A)" sheetId="12" r:id="rId4"/>
-    <sheet name="x=1(R410A)" sheetId="13" r:id="rId5"/>
-    <sheet name="x=0(R407C)" sheetId="14" r:id="rId6"/>
-    <sheet name="x=1(R407C)" sheetId="15" r:id="rId7"/>
-    <sheet name="Exergy_des" sheetId="16" r:id="rId8"/>
-    <sheet name="Exergy_ratio" sheetId="17" r:id="rId9"/>
+    <sheet name="new_plots" sheetId="18" r:id="rId4"/>
+    <sheet name="x=0(R410A)" sheetId="12" r:id="rId5"/>
+    <sheet name="x=1(R410A)" sheetId="13" r:id="rId6"/>
+    <sheet name="x=0(R407C)" sheetId="14" r:id="rId7"/>
+    <sheet name="x=1(R407C)" sheetId="15" r:id="rId8"/>
+    <sheet name="Exergy_des" sheetId="16" r:id="rId9"/>
+    <sheet name="Exergy_ratio" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="500">
   <si>
     <t>m_dot_R</t>
   </si>
@@ -1332,6 +1335,213 @@
   </si>
   <si>
     <t>Exery Destruction Ratio [%]</t>
+  </si>
+  <si>
+    <t>T_aveg_cond_in</t>
+  </si>
+  <si>
+    <t>ECU_60K_Test6</t>
+  </si>
+  <si>
+    <t>ECU_60K_Test5</t>
+  </si>
+  <si>
+    <t>ECU_60K_Test4</t>
+  </si>
+  <si>
+    <t>ECU_60K_Test3</t>
+  </si>
+  <si>
+    <t>ECU_60K_Test2</t>
+  </si>
+  <si>
+    <t>ECU_60K_Test1_v3</t>
+  </si>
+  <si>
+    <t>Text_Data$</t>
+  </si>
+  <si>
+    <t>T_env</t>
+  </si>
+  <si>
+    <t>DELTAP_cond</t>
+  </si>
+  <si>
+    <t>DELTAP_evap</t>
+  </si>
+  <si>
+    <t>T_sub</t>
+  </si>
+  <si>
+    <t>T_super</t>
+  </si>
+  <si>
+    <t>V_dot_nozzle_cfm</t>
+  </si>
+  <si>
+    <t>EER</t>
+  </si>
+  <si>
+    <t>[F]</t>
+  </si>
+  <si>
+    <t>[cfm]</t>
+  </si>
+  <si>
+    <t>[BTU/W-h]</t>
+  </si>
+  <si>
+    <t>ECU_18K_Pressure_Test1</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_top_Test1</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_bottom_Test1</t>
+  </si>
+  <si>
+    <t>ECU_18K_Pressure_Test2</t>
+  </si>
+  <si>
+    <t>ECU_18K_Pressure_Test3</t>
+  </si>
+  <si>
+    <t>ECU_18K_Pressure_Test4</t>
+  </si>
+  <si>
+    <t>ECU_18K_Pressure_Test5</t>
+  </si>
+  <si>
+    <t>ECU_18K_Pressure_Test6</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_top_Test2</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_top_Test3</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_top_Test4</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_top_Test5</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_top_Test6</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_bottom_Test2</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_bottom_Test3</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_bottom_Test4</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_bottom_Test5</t>
+  </si>
+  <si>
+    <t>ECU_18K_Temp_bottom_Test6</t>
+  </si>
+  <si>
+    <t>Text_Pressure$</t>
+  </si>
+  <si>
+    <t>Text_Temperature$</t>
+  </si>
+  <si>
+    <t>Text_Temperature_bottom$</t>
+  </si>
+  <si>
+    <t>Text_Temperature_top$</t>
+  </si>
+  <si>
+    <t>T_aveg_evap_in</t>
+  </si>
+  <si>
+    <t>ECU_36K_pressure_Test6</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_top_Test6</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_bottom_Test6</t>
+  </si>
+  <si>
+    <t>ECU_36K_pressure_Test3</t>
+  </si>
+  <si>
+    <t>ECU_36K_pressure_Test4</t>
+  </si>
+  <si>
+    <t>ECU_36K_pressure_Test5</t>
+  </si>
+  <si>
+    <t>ECU_36K_pressure_Test1</t>
+  </si>
+  <si>
+    <t>ECU_36K_pressure_Test2</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_top_Test1</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_bottom_Test1</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_top_Test2</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_bottom_Test2</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_top_Test3</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_bottom_Test3</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_top_Test4</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_bottom_Test4</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_top_Test5</t>
+  </si>
+  <si>
+    <t>ECU_36K_temp_bottom_Test5</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>COP_18K</t>
+  </si>
+  <si>
+    <t>COP_36</t>
+  </si>
+  <si>
+    <t>COP_60</t>
+  </si>
+  <si>
+    <t>epsilon_18</t>
+  </si>
+  <si>
+    <t>epsilon_36</t>
+  </si>
+  <si>
+    <t>epsilon_60</t>
+  </si>
+  <si>
+    <t>I_18</t>
+  </si>
+  <si>
+    <t>I_36</t>
+  </si>
+  <si>
+    <t>I_60</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1551,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,6 +1562,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1663,14 +1879,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5020C5B6-7726-774F-9267-7E96D068CE20}">
-  <dimension ref="A1:DH33"/>
+  <dimension ref="A1:DH43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38:L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -2910,7 +3127,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>625.29999999999995</v>
       </c>
@@ -2922,6 +3139,667 @@
       </c>
       <c r="D33">
         <v>1.8220000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>438</v>
+      </c>
+      <c r="B36" t="s">
+        <v>439</v>
+      </c>
+      <c r="C36" t="s">
+        <v>431</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" t="s">
+        <v>440</v>
+      </c>
+      <c r="O36" t="s">
+        <v>441</v>
+      </c>
+      <c r="P36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>442</v>
+      </c>
+      <c r="R36" t="s">
+        <v>443</v>
+      </c>
+      <c r="S36" t="s">
+        <v>444</v>
+      </c>
+      <c r="T36" t="s">
+        <v>14</v>
+      </c>
+      <c r="U36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V36" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>446</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R37" t="s">
+        <v>2</v>
+      </c>
+      <c r="S37" t="s">
+        <v>447</v>
+      </c>
+      <c r="T37" t="s">
+        <v>6</v>
+      </c>
+      <c r="U37" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38">
+        <v>75.08</v>
+      </c>
+      <c r="C38">
+        <v>23.93</v>
+      </c>
+      <c r="D38">
+        <v>16.75</v>
+      </c>
+      <c r="E38">
+        <v>15.91</v>
+      </c>
+      <c r="F38">
+        <v>5.2930000000000001</v>
+      </c>
+      <c r="G38">
+        <v>4.9779999999999998</v>
+      </c>
+      <c r="H38">
+        <v>0.83509999999999995</v>
+      </c>
+      <c r="I38">
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="J38">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="K38">
+        <v>5.1219999999999999</v>
+      </c>
+      <c r="L38">
+        <v>-2.887E-2</v>
+      </c>
+      <c r="M38">
+        <v>2.6960000000000002</v>
+      </c>
+      <c r="N38">
+        <v>53.22</v>
+      </c>
+      <c r="O38">
+        <v>247.9</v>
+      </c>
+      <c r="P38">
+        <v>9.4079999999999997E-2</v>
+      </c>
+      <c r="Q38">
+        <v>9.9830000000000005</v>
+      </c>
+      <c r="R38">
+        <v>16.2</v>
+      </c>
+      <c r="S38">
+        <v>1757</v>
+      </c>
+      <c r="T38">
+        <v>0.39439999999999997</v>
+      </c>
+      <c r="U38">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="V38">
+        <v>9.1969999999999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39">
+        <v>85.07</v>
+      </c>
+      <c r="C39">
+        <v>29.48</v>
+      </c>
+      <c r="D39">
+        <v>15.82</v>
+      </c>
+      <c r="E39">
+        <v>14.43</v>
+      </c>
+      <c r="F39">
+        <v>9.6739999999999995</v>
+      </c>
+      <c r="G39">
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="H39">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="I39">
+        <v>7.0179999999999998</v>
+      </c>
+      <c r="J39">
+        <v>3.093</v>
+      </c>
+      <c r="K39">
+        <v>4.923</v>
+      </c>
+      <c r="L39">
+        <v>3.7510000000000002E-2</v>
+      </c>
+      <c r="M39">
+        <v>2.254</v>
+      </c>
+      <c r="N39">
+        <v>48.63</v>
+      </c>
+      <c r="O39">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="P39">
+        <v>9.2920000000000003E-2</v>
+      </c>
+      <c r="Q39">
+        <v>6.8129999999999997</v>
+      </c>
+      <c r="R39">
+        <v>15.92</v>
+      </c>
+      <c r="S39">
+        <v>1742</v>
+      </c>
+      <c r="T39">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="U39">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="V39">
+        <v>7.6920000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>434</v>
+      </c>
+      <c r="B40">
+        <v>95.09</v>
+      </c>
+      <c r="C40">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="D40">
+        <v>18.89</v>
+      </c>
+      <c r="E40">
+        <v>17.91</v>
+      </c>
+      <c r="F40">
+        <v>5.4939999999999998</v>
+      </c>
+      <c r="G40">
+        <v>6.3380000000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="I40">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="J40">
+        <v>2.98</v>
+      </c>
+      <c r="K40">
+        <v>5.9189999999999996</v>
+      </c>
+      <c r="L40">
+        <v>6.6129999999999994E-2</v>
+      </c>
+      <c r="M40">
+        <v>2.3010000000000002</v>
+      </c>
+      <c r="N40">
+        <v>67.72</v>
+      </c>
+      <c r="O40">
+        <v>326.8</v>
+      </c>
+      <c r="P40">
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="Q40">
+        <v>6.0839999999999996</v>
+      </c>
+      <c r="R40">
+        <v>13.1</v>
+      </c>
+      <c r="S40">
+        <v>1711</v>
+      </c>
+      <c r="T40">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="U40">
+        <v>0.7581</v>
+      </c>
+      <c r="V40">
+        <v>7.851</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>435</v>
+      </c>
+      <c r="B41">
+        <v>105.1</v>
+      </c>
+      <c r="C41">
+        <v>40.6</v>
+      </c>
+      <c r="D41">
+        <v>16.82</v>
+      </c>
+      <c r="E41">
+        <v>15.44</v>
+      </c>
+      <c r="F41">
+        <v>8.9559999999999995</v>
+      </c>
+      <c r="G41">
+        <v>7.2210000000000001</v>
+      </c>
+      <c r="H41">
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="I41">
+        <v>9.0250000000000004</v>
+      </c>
+      <c r="J41">
+        <v>2.3290000000000002</v>
+      </c>
+      <c r="K41">
+        <v>6.6779999999999999</v>
+      </c>
+      <c r="L41">
+        <v>7.5249999999999997E-2</v>
+      </c>
+      <c r="M41">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="N41">
+        <v>52.34</v>
+      </c>
+      <c r="O41">
+        <v>339.4</v>
+      </c>
+      <c r="P41">
+        <v>0.1135</v>
+      </c>
+      <c r="Q41">
+        <v>7.2889999999999997</v>
+      </c>
+      <c r="R41">
+        <v>13.95</v>
+      </c>
+      <c r="S41">
+        <v>1755</v>
+      </c>
+      <c r="T41">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="U41">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="V41">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>436</v>
+      </c>
+      <c r="B42">
+        <v>115</v>
+      </c>
+      <c r="C42">
+        <v>46.14</v>
+      </c>
+      <c r="D42">
+        <v>16.03</v>
+      </c>
+      <c r="E42">
+        <v>14.31</v>
+      </c>
+      <c r="F42">
+        <v>12.02</v>
+      </c>
+      <c r="G42">
+        <v>8.4390000000000001</v>
+      </c>
+      <c r="H42">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="I42">
+        <v>10.23</v>
+      </c>
+      <c r="J42">
+        <v>1.9</v>
+      </c>
+      <c r="K42">
+        <v>7.6260000000000003</v>
+      </c>
+      <c r="L42">
+        <v>9.6240000000000006E-2</v>
+      </c>
+      <c r="M42">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="N42">
+        <v>50.56</v>
+      </c>
+      <c r="O42">
+        <v>374.9</v>
+      </c>
+      <c r="P42">
+        <v>0.1183</v>
+      </c>
+      <c r="Q42">
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="R42">
+        <v>12.72</v>
+      </c>
+      <c r="S42">
+        <v>1763</v>
+      </c>
+      <c r="T42">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="U42">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="V42">
+        <v>5.3479999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>437</v>
+      </c>
+      <c r="B43">
+        <v>125</v>
+      </c>
+      <c r="C43">
+        <v>47.59</v>
+      </c>
+      <c r="D43">
+        <v>18.43</v>
+      </c>
+      <c r="E43">
+        <v>21.46</v>
+      </c>
+      <c r="F43">
+        <v>14.12</v>
+      </c>
+      <c r="G43">
+        <v>9.0960000000000001</v>
+      </c>
+      <c r="H43">
+        <v>0.68910000000000005</v>
+      </c>
+      <c r="I43">
+        <v>10.75</v>
+      </c>
+      <c r="J43">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="K43">
+        <v>7.92</v>
+      </c>
+      <c r="L43">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="M43">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="N43">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="O43">
+        <v>447.3</v>
+      </c>
+      <c r="P43">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="Q43">
+        <v>4.7590000000000003</v>
+      </c>
+      <c r="R43">
+        <v>11.68</v>
+      </c>
+      <c r="S43">
+        <v>1707</v>
+      </c>
+      <c r="T43">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="U43">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="V43">
+        <v>5.8470000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623C47E-9C86-8A44-93F5-8883983E82D7}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="2">
+        <v>24.57</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="F2" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25.78</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>34.22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.3949999999999996</v>
+      </c>
+      <c r="F3" s="2">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H3" s="2">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="2">
+        <v>32.86</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D4" s="4">
+        <v>32.4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="F4" s="2">
+        <v>22.37</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>10.9</v>
       </c>
     </row>
   </sheetData>
@@ -2931,14 +3809,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F220BB5B-B254-BD4A-AC6A-4B0B92D45C03}">
-  <dimension ref="A1:DH33"/>
+  <dimension ref="A1:DH43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B13:B14"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38:L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4152,7 +5031,7 @@
         <v>1.829</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1069</v>
       </c>
@@ -4166,1237 +5045,2131 @@
         <v>1.831</v>
       </c>
     </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>467</v>
+      </c>
+      <c r="B36" t="s">
+        <v>468</v>
+      </c>
+      <c r="C36" t="s">
+        <v>469</v>
+      </c>
+      <c r="D36" t="s">
+        <v>470</v>
+      </c>
+      <c r="E36" t="s">
+        <v>431</v>
+      </c>
+      <c r="F36" t="s">
+        <v>471</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" t="s">
+        <v>56</v>
+      </c>
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>478</v>
+      </c>
+      <c r="B38" t="s">
+        <v>480</v>
+      </c>
+      <c r="C38" t="s">
+        <v>481</v>
+      </c>
+      <c r="D38" t="s">
+        <v>480</v>
+      </c>
+      <c r="E38">
+        <v>48.03</v>
+      </c>
+      <c r="F38">
+        <v>31.03</v>
+      </c>
+      <c r="G38">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="H38">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="I38">
+        <v>0.1207</v>
+      </c>
+      <c r="J38">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="K38">
+        <v>0.6673</v>
+      </c>
+      <c r="L38">
+        <v>5.0579999999999998</v>
+      </c>
+      <c r="M38">
+        <v>12.42</v>
+      </c>
+      <c r="N38">
+        <v>7.4139999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>479</v>
+      </c>
+      <c r="B39" t="s">
+        <v>482</v>
+      </c>
+      <c r="C39" t="s">
+        <v>483</v>
+      </c>
+      <c r="D39" t="s">
+        <v>482</v>
+      </c>
+      <c r="E39">
+        <v>43.4</v>
+      </c>
+      <c r="F39">
+        <v>28.4</v>
+      </c>
+      <c r="G39">
+        <v>2.286</v>
+      </c>
+      <c r="H39">
+        <v>1.976</v>
+      </c>
+      <c r="I39">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="J39">
+        <v>9.8239999999999994E-2</v>
+      </c>
+      <c r="K39">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="L39">
+        <v>4.41</v>
+      </c>
+      <c r="M39">
+        <v>11.37</v>
+      </c>
+      <c r="N39">
+        <v>9.0370000000000008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>475</v>
+      </c>
+      <c r="B40" t="s">
+        <v>484</v>
+      </c>
+      <c r="C40" t="s">
+        <v>485</v>
+      </c>
+      <c r="D40" t="s">
+        <v>484</v>
+      </c>
+      <c r="E40">
+        <v>39.24</v>
+      </c>
+      <c r="F40">
+        <v>28.47</v>
+      </c>
+      <c r="G40">
+        <v>2.706</v>
+      </c>
+      <c r="H40">
+        <v>2.3109999999999999</v>
+      </c>
+      <c r="I40">
+        <v>9.6629999999999994E-2</v>
+      </c>
+      <c r="J40">
+        <v>8.2519999999999996E-2</v>
+      </c>
+      <c r="K40">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="L40">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="M40">
+        <v>12.03</v>
+      </c>
+      <c r="N40">
+        <v>9.6349999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>476</v>
+      </c>
+      <c r="B41" t="s">
+        <v>486</v>
+      </c>
+      <c r="C41" t="s">
+        <v>487</v>
+      </c>
+      <c r="D41" t="s">
+        <v>486</v>
+      </c>
+      <c r="E41">
+        <v>35.17</v>
+      </c>
+      <c r="F41">
+        <v>26.55</v>
+      </c>
+      <c r="G41">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="H41">
+        <v>2.69</v>
+      </c>
+      <c r="I41">
+        <v>9.2490000000000003E-2</v>
+      </c>
+      <c r="J41">
+        <v>7.7340000000000006E-2</v>
+      </c>
+      <c r="K41">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="L41">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="M41">
+        <v>12.96</v>
+      </c>
+      <c r="N41">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>477</v>
+      </c>
+      <c r="B42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C42" t="s">
+        <v>489</v>
+      </c>
+      <c r="D42" t="s">
+        <v>488</v>
+      </c>
+      <c r="E42">
+        <v>30.5</v>
+      </c>
+      <c r="F42">
+        <v>23.99</v>
+      </c>
+      <c r="G42">
+        <v>3.4489999999999998</v>
+      </c>
+      <c r="H42">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="I42">
+        <v>7.5569999999999998E-2</v>
+      </c>
+      <c r="J42">
+        <v>6.13E-2</v>
+      </c>
+      <c r="K42">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="L42">
+        <v>3.145</v>
+      </c>
+      <c r="M42">
+        <v>11.73</v>
+      </c>
+      <c r="N42">
+        <v>9.5090000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>472</v>
+      </c>
+      <c r="B43" t="s">
+        <v>473</v>
+      </c>
+      <c r="C43" t="s">
+        <v>474</v>
+      </c>
+      <c r="D43" t="s">
+        <v>473</v>
+      </c>
+      <c r="E43">
+        <v>26.3</v>
+      </c>
+      <c r="F43">
+        <v>26.4</v>
+      </c>
+      <c r="G43">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="H43">
+        <v>3.4569999999999999</v>
+      </c>
+      <c r="I43">
+        <v>-1.4859999999999999E-3</v>
+      </c>
+      <c r="J43">
+        <v>-1.1689999999999999E-3</v>
+      </c>
+      <c r="K43">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="L43">
+        <v>2.8980000000000001</v>
+      </c>
+      <c r="M43">
+        <v>12.72</v>
+      </c>
+      <c r="N43">
+        <v>10.5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DD486D-45B2-2044-B5E7-D664A1D93FDF}">
-  <dimension ref="A1:DF33"/>
+  <dimension ref="A1:DF44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5.5780000000000003</v>
+      </c>
+      <c r="C3">
+        <v>5.359</v>
+      </c>
+      <c r="D3">
+        <f>ABS(B3-C3)/B3*100</f>
+        <v>3.9261384008605287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.0140000000000002</v>
+      </c>
+      <c r="C4">
+        <v>5.1790000000000003</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D8" si="0">ABS(B4-C4)/B4*100</f>
+        <v>3.2907857997606706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.15</v>
+      </c>
+      <c r="C5">
+        <v>5.0940000000000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.0873786407766999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5.8769999999999998</v>
+      </c>
+      <c r="C6">
+        <v>6.0629999999999997</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.1648800408371613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5.133</v>
+      </c>
+      <c r="C7">
+        <v>4.92</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4.1496201052016382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5.649</v>
+      </c>
+      <c r="C8">
+        <v>5.5609999999999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.5577978403257227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" t="s">
+        <v>41</v>
+      </c>
+      <c r="W15" t="s">
+        <v>42</v>
+      </c>
+      <c r="X15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>94</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>100</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>101</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>107</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>110</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>111</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>112</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>114</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>15</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>115</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>116</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>117</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>118</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>119</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>120</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" t="s">
+        <v>122</v>
+      </c>
+      <c r="T16" t="s">
+        <v>122</v>
+      </c>
+      <c r="U16" t="s">
+        <v>122</v>
+      </c>
+      <c r="V16" t="s">
+        <v>122</v>
+      </c>
+      <c r="W16" t="s">
+        <v>122</v>
+      </c>
+      <c r="X16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>124</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>124</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>6</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>6</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="s">
+        <v>210</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>170</v>
+      </c>
+      <c r="P17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>211</v>
+      </c>
+      <c r="R17" t="s">
+        <v>128</v>
+      </c>
+      <c r="S17" t="s">
+        <v>129</v>
+      </c>
+      <c r="T17" t="s">
+        <v>130</v>
+      </c>
+      <c r="U17" t="s">
+        <v>131</v>
+      </c>
+      <c r="V17" t="s">
+        <v>132</v>
+      </c>
+      <c r="W17" t="s">
+        <v>133</v>
+      </c>
+      <c r="X17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM17">
+        <v>655.8</v>
+      </c>
+      <c r="AN17">
+        <v>3108</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ17">
+        <v>3095</v>
+      </c>
+      <c r="AR17">
+        <v>3095</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>405</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>406</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>190</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>191</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>193</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>195</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>198</v>
+      </c>
+      <c r="CA17">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="CB17">
+        <v>111</v>
+      </c>
+      <c r="CC17">
+        <v>110</v>
+      </c>
+      <c r="CD17">
+        <v>68.97</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CF17">
+        <v>60.57</v>
+      </c>
+      <c r="CG17">
+        <v>60.47</v>
+      </c>
+      <c r="CH17">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>151</v>
+      </c>
+      <c r="CJ17">
+        <v>16.59</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>152</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>153</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>154</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>155</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>160</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>161</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>153</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>199</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>200</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>201</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>202</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>203</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>204</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>205</v>
+      </c>
+      <c r="DD17" t="s">
+        <v>206</v>
+      </c>
+      <c r="DE17" t="s">
+        <v>207</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>655.8</v>
+      </c>
+      <c r="B23">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="C23">
+        <v>421.7</v>
+      </c>
+      <c r="D23">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3108</v>
+      </c>
+      <c r="B24">
+        <v>111</v>
+      </c>
+      <c r="C24">
+        <v>486.3</v>
+      </c>
+      <c r="D24">
+        <v>1.857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3108</v>
+      </c>
+      <c r="B25">
+        <v>110</v>
+      </c>
+      <c r="C25">
+        <v>485.1</v>
+      </c>
+      <c r="D25">
+        <v>1.8540000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3108</v>
+      </c>
+      <c r="B26">
+        <v>68.97</v>
+      </c>
+      <c r="C26">
+        <v>423.7</v>
+      </c>
+      <c r="D26">
+        <v>1.6839999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3095</v>
+      </c>
+      <c r="B27">
+        <v>65.2</v>
+      </c>
+      <c r="C27">
+        <v>305.2</v>
+      </c>
+      <c r="D27">
+        <v>1.3360000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3095</v>
+      </c>
+      <c r="B28">
+        <v>60.57</v>
+      </c>
+      <c r="C28">
+        <v>295.60000000000002</v>
+      </c>
+      <c r="D28">
+        <v>1.3069999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3080</v>
+      </c>
+      <c r="B29">
+        <v>60.47</v>
+      </c>
+      <c r="C29">
+        <v>295.5</v>
+      </c>
+      <c r="D29">
+        <v>1.3069999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>975.2</v>
+      </c>
+      <c r="B30">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="C30">
+        <v>295.5</v>
+      </c>
+      <c r="D30">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>655.8</v>
+      </c>
+      <c r="B31">
+        <v>10.54</v>
+      </c>
+      <c r="C31">
+        <v>414.3</v>
+      </c>
+      <c r="D31">
+        <v>1.764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>655.8</v>
+      </c>
+      <c r="B32">
+        <v>16.59</v>
+      </c>
+      <c r="C32">
+        <v>420.4</v>
+      </c>
+      <c r="D32">
+        <v>1.7849999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>655.8</v>
+      </c>
+      <c r="B33">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="C33">
+        <v>421.7</v>
+      </c>
+      <c r="D33">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" t="s">
+        <v>468</v>
+      </c>
+      <c r="C37" t="s">
+        <v>469</v>
+      </c>
+      <c r="D37" t="s">
+        <v>470</v>
+      </c>
+      <c r="E37" t="s">
+        <v>431</v>
+      </c>
+      <c r="F37" t="s">
+        <v>471</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39" t="s">
+        <v>450</v>
+      </c>
+      <c r="C39" t="s">
+        <v>451</v>
+      </c>
+      <c r="D39" t="s">
+        <v>450</v>
+      </c>
+      <c r="E39">
+        <v>47.87</v>
+      </c>
+      <c r="F39">
+        <v>32.06</v>
+      </c>
+      <c r="G39">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="H39">
+        <v>9.4880000000000006E-2</v>
+      </c>
+      <c r="I39">
+        <v>2.76</v>
+      </c>
+      <c r="J39">
+        <v>0.5756</v>
+      </c>
+      <c r="K39">
+        <v>6.7339999999999997E-2</v>
+      </c>
+      <c r="L39">
+        <v>1.3</v>
+      </c>
+      <c r="M39">
+        <v>5.5860000000000003</v>
+      </c>
+      <c r="N39">
+        <v>4.0860000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>452</v>
+      </c>
+      <c r="B40" t="s">
+        <v>457</v>
+      </c>
+      <c r="C40" t="s">
+        <v>462</v>
+      </c>
+      <c r="D40" t="s">
+        <v>457</v>
+      </c>
+      <c r="E40">
+        <v>43.3</v>
+      </c>
+      <c r="F40">
+        <v>29.31</v>
+      </c>
+      <c r="G40">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="H40">
+        <v>8.9359999999999995E-2</v>
+      </c>
+      <c r="I40">
+        <v>2.3610000000000002</v>
+      </c>
+      <c r="J40">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="K40">
+        <v>6.0060000000000002E-2</v>
+      </c>
+      <c r="L40">
+        <v>1.298</v>
+      </c>
+      <c r="M40">
+        <v>5.0069999999999997</v>
+      </c>
+      <c r="N40">
+        <v>4.2229999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>453</v>
+      </c>
+      <c r="B41" t="s">
+        <v>458</v>
+      </c>
+      <c r="C41" t="s">
+        <v>463</v>
+      </c>
+      <c r="D41" t="s">
+        <v>458</v>
+      </c>
+      <c r="E41">
+        <v>38.96</v>
+      </c>
+      <c r="F41">
+        <v>29.49</v>
+      </c>
+      <c r="G41">
+        <v>2.2869999999999999</v>
+      </c>
+      <c r="H41">
+        <v>7.1510000000000004E-2</v>
+      </c>
+      <c r="I41">
+        <v>2.093</v>
+      </c>
+      <c r="J41">
+        <v>0.629</v>
+      </c>
+      <c r="K41">
+        <v>4.5629999999999997E-2</v>
+      </c>
+      <c r="L41">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="M41">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="N41">
+        <v>3.4260000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B42" t="s">
+        <v>459</v>
+      </c>
+      <c r="C42" t="s">
+        <v>464</v>
+      </c>
+      <c r="D42" t="s">
+        <v>459</v>
+      </c>
+      <c r="E42">
+        <v>35.42</v>
+      </c>
+      <c r="F42">
+        <v>26.61</v>
+      </c>
+      <c r="G42">
+        <v>2.8740000000000001</v>
+      </c>
+      <c r="H42">
+        <v>8.4390000000000007E-2</v>
+      </c>
+      <c r="I42">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="J42">
+        <v>0.6986</v>
+      </c>
+      <c r="K42">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="L42">
+        <v>1.75</v>
+      </c>
+      <c r="M42">
+        <v>5.8179999999999996</v>
+      </c>
+      <c r="N42">
+        <v>4.7430000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>455</v>
+      </c>
+      <c r="B43" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43" t="s">
+        <v>465</v>
+      </c>
+      <c r="D43" t="s">
+        <v>460</v>
+      </c>
+      <c r="E43">
+        <v>30.52</v>
+      </c>
+      <c r="F43">
+        <v>25.07</v>
+      </c>
+      <c r="G43">
+        <v>2.891</v>
+      </c>
+      <c r="H43">
+        <v>5.2850000000000001E-2</v>
+      </c>
+      <c r="I43">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="J43">
+        <v>0.6986</v>
+      </c>
+      <c r="K43">
+        <v>3.2939999999999997E-2</v>
+      </c>
+      <c r="L43">
+        <v>1.802</v>
+      </c>
+      <c r="M43">
+        <v>5.1360000000000001</v>
+      </c>
+      <c r="N43">
+        <v>3.4649999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>456</v>
+      </c>
+      <c r="B44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C44" t="s">
+        <v>466</v>
+      </c>
+      <c r="D44" t="s">
+        <v>461</v>
+      </c>
+      <c r="E44">
+        <v>26.21</v>
+      </c>
+      <c r="F44">
+        <v>25.25</v>
+      </c>
+      <c r="G44">
+        <v>3.585</v>
+      </c>
+      <c r="H44">
+        <v>1.1509999999999999E-2</v>
+      </c>
+      <c r="I44">
+        <v>1.56</v>
+      </c>
+      <c r="J44">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="K44">
+        <v>6.855E-3</v>
+      </c>
+      <c r="L44">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="M44">
+        <v>5.657</v>
+      </c>
+      <c r="N44">
+        <v>3.7280000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AA52A6-63C5-CF43-8342-402D88B30A87}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>490</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>491</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>492</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>3.585</v>
+      </c>
+      <c r="C2">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="D2">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="E2">
+        <v>1.1509999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.486E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.2870000000000001E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.56</v>
+      </c>
+      <c r="I2">
+        <v>2.8980000000000001</v>
+      </c>
+      <c r="J2">
+        <v>5.1219999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>5.5780000000000003</v>
+        <v>2.891</v>
       </c>
       <c r="C3">
-        <v>5.359</v>
+        <v>3.4489999999999998</v>
       </c>
       <c r="D3">
-        <f>ABS(B3-C3)/B3*100</f>
-        <v>3.9261384008605287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.2">
+        <v>3.093</v>
+      </c>
+      <c r="E3">
+        <v>5.2850000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>7.5569999999999998E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.7510000000000002E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="I3">
+        <v>3.145</v>
+      </c>
+      <c r="J3">
+        <v>4.923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>5.0140000000000002</v>
+        <v>2.8740000000000001</v>
       </c>
       <c r="C4">
-        <v>5.1790000000000003</v>
+        <v>3.2170000000000001</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D8" si="0">ABS(B4-C4)/B4*100</f>
-        <v>3.2907857997606706</v>
-      </c>
-    </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.2">
+        <v>2.98</v>
+      </c>
+      <c r="E4">
+        <v>8.4390000000000007E-2</v>
+      </c>
+      <c r="F4">
+        <v>9.2490000000000003E-2</v>
+      </c>
+      <c r="G4">
+        <v>6.6129999999999994E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="I4">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="J4">
+        <v>5.9189999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.15</v>
+        <v>2.2869999999999999</v>
       </c>
       <c r="C5">
-        <v>5.0940000000000003</v>
+        <v>2.706</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1.0873786407766999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.2">
+        <v>2.3290000000000002</v>
+      </c>
+      <c r="E5">
+        <v>7.1510000000000004E-2</v>
+      </c>
+      <c r="F5">
+        <v>9.6629999999999994E-2</v>
+      </c>
+      <c r="G5">
+        <v>7.5249999999999997E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.093</v>
+      </c>
+      <c r="I5">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="J5">
+        <v>6.6779999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>5.8769999999999998</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="C6">
-        <v>6.0629999999999997</v>
+        <v>2.286</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>3.1648800408371613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="E6">
+        <v>8.9359999999999995E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="G6">
+        <v>9.6240000000000006E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.3610000000000002</v>
+      </c>
+      <c r="I6">
+        <v>4.41</v>
+      </c>
+      <c r="J6">
+        <v>7.6260000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>5.133</v>
+        <v>1.8320000000000001</v>
       </c>
       <c r="C7">
-        <v>4.92</v>
+        <v>2.1589999999999998</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>4.1496201052016382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>5.649</v>
-      </c>
-      <c r="C8">
-        <v>5.5609999999999999</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.5577978403257227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" t="s">
-        <v>38</v>
-      </c>
-      <c r="T15" t="s">
-        <v>39</v>
-      </c>
-      <c r="U15" t="s">
-        <v>40</v>
-      </c>
-      <c r="V15" t="s">
-        <v>41</v>
-      </c>
-      <c r="W15" t="s">
-        <v>42</v>
-      </c>
-      <c r="X15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>17</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>76</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>80</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>81</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>82</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>90</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>91</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>92</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>93</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CC15" t="s">
-        <v>95</v>
-      </c>
-      <c r="CD15" t="s">
-        <v>96</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG15" t="s">
-        <v>99</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>100</v>
-      </c>
-      <c r="CI15" t="s">
-        <v>101</v>
-      </c>
-      <c r="CJ15" t="s">
-        <v>102</v>
-      </c>
-      <c r="CK15" t="s">
-        <v>103</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>107</v>
-      </c>
-      <c r="CP15" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ15" t="s">
-        <v>109</v>
-      </c>
-      <c r="CR15" t="s">
-        <v>110</v>
-      </c>
-      <c r="CS15" t="s">
-        <v>111</v>
-      </c>
-      <c r="CT15" t="s">
-        <v>112</v>
-      </c>
-      <c r="CU15" t="s">
-        <v>113</v>
-      </c>
-      <c r="CV15" t="s">
-        <v>114</v>
-      </c>
-      <c r="CW15" t="s">
-        <v>1</v>
-      </c>
-      <c r="CX15" t="s">
-        <v>14</v>
-      </c>
-      <c r="CY15" t="s">
-        <v>15</v>
-      </c>
-      <c r="CZ15" t="s">
-        <v>115</v>
-      </c>
-      <c r="DA15" t="s">
-        <v>116</v>
-      </c>
-      <c r="DB15" t="s">
-        <v>117</v>
-      </c>
-      <c r="DC15" t="s">
-        <v>118</v>
-      </c>
-      <c r="DD15" t="s">
-        <v>119</v>
-      </c>
-      <c r="DE15" t="s">
-        <v>120</v>
-      </c>
-      <c r="DF15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="R16" t="s">
-        <v>122</v>
-      </c>
-      <c r="S16" t="s">
-        <v>122</v>
-      </c>
-      <c r="T16" t="s">
-        <v>122</v>
-      </c>
-      <c r="U16" t="s">
-        <v>122</v>
-      </c>
-      <c r="V16" t="s">
-        <v>122</v>
-      </c>
-      <c r="W16" t="s">
-        <v>122</v>
-      </c>
-      <c r="X16" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>6</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>123</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>123</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>123</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>123</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>123</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>123</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>123</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>123</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>123</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>123</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>124</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>124</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>124</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>124</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>124</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>124</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>124</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>124</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CH16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>125</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>125</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>125</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>125</v>
-      </c>
-      <c r="CP16" t="s">
-        <v>125</v>
-      </c>
-      <c r="CQ16" t="s">
-        <v>125</v>
-      </c>
-      <c r="CR16" t="s">
-        <v>125</v>
-      </c>
-      <c r="CS16" t="s">
-        <v>125</v>
-      </c>
-      <c r="CT16" t="s">
-        <v>125</v>
-      </c>
-      <c r="CU16" t="s">
-        <v>125</v>
-      </c>
-      <c r="CV16" t="s">
-        <v>125</v>
-      </c>
-      <c r="CW16" t="s">
-        <v>6</v>
-      </c>
-      <c r="CX16" t="s">
-        <v>6</v>
-      </c>
-      <c r="CY16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" t="s">
-        <v>166</v>
-      </c>
-      <c r="I17" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" t="s">
-        <v>168</v>
-      </c>
-      <c r="K17" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" t="s">
-        <v>169</v>
-      </c>
-      <c r="M17" t="s">
-        <v>210</v>
-      </c>
-      <c r="N17" t="s">
-        <v>170</v>
-      </c>
-      <c r="O17" t="s">
-        <v>170</v>
-      </c>
-      <c r="P17" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>211</v>
-      </c>
-      <c r="R17" t="s">
-        <v>128</v>
-      </c>
-      <c r="S17" t="s">
-        <v>129</v>
-      </c>
-      <c r="T17" t="s">
-        <v>130</v>
-      </c>
-      <c r="U17" t="s">
-        <v>131</v>
-      </c>
-      <c r="V17" t="s">
-        <v>132</v>
-      </c>
-      <c r="W17" t="s">
-        <v>133</v>
-      </c>
-      <c r="X17" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM17">
-        <v>655.8</v>
-      </c>
-      <c r="AN17">
-        <v>3108</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>404</v>
-      </c>
-      <c r="AQ17">
-        <v>3095</v>
-      </c>
-      <c r="AR17">
-        <v>3095</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>405</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>406</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>184</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>185</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>186</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>187</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>188</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>190</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>140</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>141</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>143</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>144</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>146</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>148</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>140</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>191</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>192</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>193</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>194</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>195</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>196</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>197</v>
-      </c>
-      <c r="BZ17" t="s">
-        <v>198</v>
-      </c>
-      <c r="CA17">
-        <v>17.920000000000002</v>
-      </c>
-      <c r="CB17">
-        <v>111</v>
-      </c>
-      <c r="CC17">
-        <v>110</v>
-      </c>
-      <c r="CD17">
-        <v>68.97</v>
-      </c>
-      <c r="CE17" t="s">
-        <v>150</v>
-      </c>
-      <c r="CF17">
-        <v>60.57</v>
-      </c>
-      <c r="CG17">
-        <v>60.47</v>
-      </c>
-      <c r="CH17">
-        <v>19.760000000000002</v>
-      </c>
-      <c r="CI17" t="s">
-        <v>151</v>
-      </c>
-      <c r="CJ17">
-        <v>16.59</v>
-      </c>
-      <c r="CK17" t="s">
-        <v>152</v>
-      </c>
-      <c r="CL17" t="s">
-        <v>153</v>
-      </c>
-      <c r="CM17" t="s">
-        <v>154</v>
-      </c>
-      <c r="CN17" t="s">
-        <v>155</v>
-      </c>
-      <c r="CO17" t="s">
-        <v>156</v>
-      </c>
-      <c r="CP17" t="s">
-        <v>157</v>
-      </c>
-      <c r="CQ17" t="s">
-        <v>158</v>
-      </c>
-      <c r="CR17" t="s">
-        <v>159</v>
-      </c>
-      <c r="CS17" t="s">
-        <v>160</v>
-      </c>
-      <c r="CT17" t="s">
-        <v>161</v>
-      </c>
-      <c r="CU17" t="s">
-        <v>162</v>
-      </c>
-      <c r="CV17" t="s">
-        <v>153</v>
-      </c>
-      <c r="CW17" t="s">
-        <v>199</v>
-      </c>
-      <c r="CX17" t="s">
-        <v>200</v>
-      </c>
-      <c r="CY17" t="s">
-        <v>201</v>
-      </c>
-      <c r="CZ17" t="s">
-        <v>202</v>
-      </c>
-      <c r="DA17" t="s">
-        <v>203</v>
-      </c>
-      <c r="DB17" t="s">
-        <v>204</v>
-      </c>
-      <c r="DC17" t="s">
-        <v>205</v>
-      </c>
-      <c r="DD17" t="s">
-        <v>206</v>
-      </c>
-      <c r="DE17" t="s">
-        <v>207</v>
-      </c>
-      <c r="DF17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>412</v>
-      </c>
-      <c r="B21" t="s">
-        <v>413</v>
-      </c>
-      <c r="C21" t="s">
-        <v>414</v>
-      </c>
-      <c r="D21" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>655.8</v>
-      </c>
-      <c r="B23">
-        <v>17.920000000000002</v>
-      </c>
-      <c r="C23">
-        <v>421.7</v>
-      </c>
-      <c r="D23">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3108</v>
-      </c>
-      <c r="B24">
-        <v>111</v>
-      </c>
-      <c r="C24">
-        <v>486.3</v>
-      </c>
-      <c r="D24">
-        <v>1.857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3108</v>
-      </c>
-      <c r="B25">
-        <v>110</v>
-      </c>
-      <c r="C25">
-        <v>485.1</v>
-      </c>
-      <c r="D25">
-        <v>1.8540000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>3108</v>
-      </c>
-      <c r="B26">
-        <v>68.97</v>
-      </c>
-      <c r="C26">
-        <v>423.7</v>
-      </c>
-      <c r="D26">
-        <v>1.6839999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>3095</v>
-      </c>
-      <c r="B27">
-        <v>65.2</v>
-      </c>
-      <c r="C27">
-        <v>305.2</v>
-      </c>
-      <c r="D27">
-        <v>1.3360000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>3095</v>
-      </c>
-      <c r="B28">
-        <v>60.57</v>
-      </c>
-      <c r="C28">
-        <v>295.60000000000002</v>
-      </c>
-      <c r="D28">
-        <v>1.3069999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>3080</v>
-      </c>
-      <c r="B29">
-        <v>60.47</v>
-      </c>
-      <c r="C29">
-        <v>295.5</v>
-      </c>
-      <c r="D29">
-        <v>1.3069999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>975.2</v>
-      </c>
-      <c r="B30">
-        <v>19.760000000000002</v>
-      </c>
-      <c r="C30">
-        <v>295.5</v>
-      </c>
-      <c r="D30">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>655.8</v>
-      </c>
-      <c r="B31">
-        <v>10.54</v>
-      </c>
-      <c r="C31">
-        <v>414.3</v>
-      </c>
-      <c r="D31">
-        <v>1.764</v>
-      </c>
-    </row>
-    <row r="32" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>655.8</v>
-      </c>
-      <c r="B32">
-        <v>16.59</v>
-      </c>
-      <c r="C32">
-        <v>420.4</v>
-      </c>
-      <c r="D32">
-        <v>1.7849999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>655.8</v>
-      </c>
-      <c r="B33">
-        <v>17.920000000000002</v>
-      </c>
-      <c r="C33">
-        <v>421.7</v>
-      </c>
-      <c r="D33">
-        <v>1.79</v>
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="E7">
+        <v>9.4880000000000006E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.1207</v>
+      </c>
+      <c r="G7">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="H7">
+        <v>2.76</v>
+      </c>
+      <c r="I7">
+        <v>5.0579999999999998</v>
+      </c>
+      <c r="J7">
+        <v>7.92</v>
       </c>
     </row>
   </sheetData>
@@ -5404,7 +7177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA3F4DE-1D29-6041-B016-BC7ED19706F2}">
   <dimension ref="A1:F302"/>
   <sheetViews>
@@ -5412,7 +7185,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -11459,7 +13232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF634730-FE6E-FF49-BEDE-793BC03DE2A3}">
   <dimension ref="A1:F302"/>
   <sheetViews>
@@ -11467,7 +13240,7 @@
       <selection sqref="A1:F302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -17514,7 +19287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CBAA7A-5A7A-EF4A-A435-43026F880762}">
   <dimension ref="A1:F302"/>
   <sheetViews>
@@ -17522,7 +19295,7 @@
       <selection activeCell="D302" sqref="D302:F302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -23569,7 +25342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC50F4EC-3E34-C74E-947C-B3A0CEFDA248}">
   <dimension ref="A1:F303"/>
   <sheetViews>
@@ -23577,7 +25350,7 @@
       <selection activeCell="D303" sqref="D303:F303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -29644,15 +31417,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3016C04-7464-AF4A-A5AD-A4236999F596}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -29765,127 +31538,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623C47E-9C86-8A44-93F5-8883983E82D7}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B2" s="2">
-        <v>24.57</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="D2" s="4">
-        <v>42.5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="F2" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>12.74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B3" s="2">
-        <v>25.78</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>34.22</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5.3949999999999996</v>
-      </c>
-      <c r="F3" s="2">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="H3" s="2">
-        <v>17.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4" s="2">
-        <v>32.86</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="D4" s="4">
-        <v>32.4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="F4" s="2">
-        <v>22.37</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>10.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/STBE-2nd law/data_tables.xlsx
+++ b/STBE-2nd law/data_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/Trunk/STBE-2nd law/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8219083E-7981-4245-A8CA-C29F3A7F01C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057E3E48-069D-AF43-BD5D-2C24DD635740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20720" windowHeight="13280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6943,7 +6943,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7000,7 +7000,7 @@
         <v>2.486E-2</v>
       </c>
       <c r="G2">
-        <v>2.2870000000000001E-2</v>
+        <v>2.087E-2</v>
       </c>
       <c r="H2">
         <v>1.56</v>
@@ -7154,10 +7154,10 @@
         <v>2.0259999999999998</v>
       </c>
       <c r="E7">
-        <v>9.4880000000000006E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F7">
-        <v>0.1207</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="G7">
         <v>0.12939999999999999</v>
